--- a/uclbrt/auto_test/meizhu/meizhu_account.xlsx
+++ b/uclbrt/auto_test/meizhu/meizhu_account.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="540" windowWidth="14775" windowHeight="9450"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>mobile</t>
   </si>
@@ -31,31 +31,47 @@
   </si>
   <si>
     <t>111111b</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>111111c</t>
+  </si>
+  <si>
+    <t>密码不正确</t>
+  </si>
+  <si>
+    <t>用户不存在</t>
+  </si>
+  <si>
+    <t>手机号格式错误</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,21 +87,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -375,19 +385,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="12.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,46 +415,108 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:4">
+      <c r="A2" t="n">
         <v>13480251015</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="n">
+        <v>13480251015</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="n">
+        <v>13480251015</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="n">
+        <v>13322224444</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" t="n">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>